--- a/data/trans_orig/P14C14-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C14-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24A165DB-B161-4535-9782-45E19F43DC6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCE9761C-9944-4E98-9F98-FD330AE95E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{877A3F1B-E5E4-4388-A732-E5C681A73B9C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{906F250D-9AFF-4904-B0A0-D3BB3DAFDA64}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="89">
   <si>
     <t>Población según el tiempo de diagnóstico del fibromialgia en 2015 (Tasa respuesta: 1,95%)</t>
   </si>
@@ -83,19 +83,19 @@
     <t>76,96%</t>
   </si>
   <si>
-    <t>61,73%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
   </si>
   <si>
     <t>77,4%</t>
   </si>
   <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -113,19 +113,19 @@
     <t>19,04%</t>
   </si>
   <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
   </si>
   <si>
     <t>18,67%</t>
   </si>
   <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -134,13 +134,13 @@
     <t>4,01%</t>
   </si>
   <si>
-    <t>14,03%</t>
+    <t>12,9%</t>
   </si>
   <si>
     <t>3,93%</t>
   </si>
   <si>
-    <t>13,0%</t>
+    <t>13,09%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -149,49 +149,49 @@
     <t>79,91%</t>
   </si>
   <si>
-    <t>47,51%</t>
+    <t>48,95%</t>
   </si>
   <si>
     <t>77,63%</t>
   </si>
   <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
   </si>
   <si>
     <t>77,95%</t>
   </si>
   <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
   </si>
   <si>
     <t>20,09%</t>
   </si>
   <si>
-    <t>52,49%</t>
+    <t>51,05%</t>
   </si>
   <si>
     <t>22,37%</t>
   </si>
   <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
   </si>
   <si>
     <t>22,05%</t>
   </si>
   <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -212,13 +212,13 @@
     <t>76,07%</t>
   </si>
   <si>
-    <t>38,08%</t>
+    <t>38,36%</t>
   </si>
   <si>
     <t>81,63%</t>
   </si>
   <si>
-    <t>41,79%</t>
+    <t>50,21%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -227,13 +227,13 @@
     <t>23,93%</t>
   </si>
   <si>
-    <t>61,92%</t>
+    <t>61,64%</t>
   </si>
   <si>
     <t>18,37%</t>
   </si>
   <si>
-    <t>58,21%</t>
+    <t>49,79%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -242,43 +242,46 @@
     <t>85,05%</t>
   </si>
   <si>
-    <t>60,75%</t>
+    <t>60,03%</t>
   </si>
   <si>
     <t>77,25%</t>
   </si>
   <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
   </si>
   <si>
     <t>78,04%</t>
   </si>
   <si>
-    <t>69,97%</t>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
   </si>
   <si>
     <t>14,95%</t>
   </si>
   <si>
-    <t>39,25%</t>
+    <t>39,97%</t>
   </si>
   <si>
     <t>21,12%</t>
   </si>
   <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
   </si>
   <si>
     <t>20,5%</t>
   </si>
   <si>
-    <t>13,71%</t>
+    <t>13,92%</t>
   </si>
   <si>
     <t>28,19%</t>
@@ -296,7 +299,7 @@
     <t>1,46%</t>
   </si>
   <si>
-    <t>5,1%</t>
+    <t>4,64%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +714,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F736CF54-C616-4BC9-ACC9-902EFEDF4925}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93E9E883-B721-46BA-9BDB-D94493FF7E44}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1489,7 +1492,7 @@
         <v>73</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1504,13 +1507,13 @@
         <v>2100</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -1519,13 +1522,13 @@
         <v>26415</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M17" s="7">
         <v>27</v>
@@ -1534,13 +1537,13 @@
         <v>28515</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1561,7 +1564,7 @@
         <v>22</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -1570,13 +1573,13 @@
         <v>2036</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M18" s="7">
         <v>2</v>
@@ -1585,13 +1588,13 @@
         <v>2036</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1647,7 +1650,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C14-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C14-Estudios-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCE9761C-9944-4E98-9F98-FD330AE95E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAA886C8-2225-4C26-8FF3-17DCFFE1F150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{906F250D-9AFF-4904-B0A0-D3BB3DAFDA64}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A5792DB1-992C-42AE-A8ED-B4BFA787C54B}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="89">
   <si>
-    <t>Población según el tiempo de diagnóstico del fibromialgia en 2015 (Tasa respuesta: 1,95%)</t>
+    <t>Población según el tiempo de diagnóstico del fibromialgia en 2016 (Tasa respuesta: 1,95%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -83,19 +83,19 @@
     <t>76,96%</t>
   </si>
   <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
   </si>
   <si>
     <t>77,4%</t>
   </si>
   <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -113,19 +113,19 @@
     <t>19,04%</t>
   </si>
   <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
   </si>
   <si>
     <t>18,67%</t>
   </si>
   <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -134,13 +134,13 @@
     <t>4,01%</t>
   </si>
   <si>
-    <t>12,9%</t>
+    <t>12,78%</t>
   </si>
   <si>
     <t>3,93%</t>
   </si>
   <si>
-    <t>13,09%</t>
+    <t>13,45%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -149,49 +149,49 @@
     <t>79,91%</t>
   </si>
   <si>
-    <t>48,95%</t>
+    <t>44,17%</t>
   </si>
   <si>
     <t>77,63%</t>
   </si>
   <si>
-    <t>66,37%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
   </si>
   <si>
     <t>77,95%</t>
   </si>
   <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
   </si>
   <si>
     <t>20,09%</t>
   </si>
   <si>
-    <t>51,05%</t>
+    <t>55,83%</t>
   </si>
   <si>
     <t>22,37%</t>
   </si>
   <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
   </si>
   <si>
     <t>22,05%</t>
   </si>
   <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -212,13 +212,13 @@
     <t>76,07%</t>
   </si>
   <si>
-    <t>38,36%</t>
+    <t>37,86%</t>
   </si>
   <si>
     <t>81,63%</t>
   </si>
   <si>
-    <t>50,21%</t>
+    <t>50,5%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -227,13 +227,13 @@
     <t>23,93%</t>
   </si>
   <si>
-    <t>61,64%</t>
+    <t>62,14%</t>
   </si>
   <si>
     <t>18,37%</t>
   </si>
   <si>
-    <t>49,79%</t>
+    <t>49,5%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -242,49 +242,49 @@
     <t>85,05%</t>
   </si>
   <si>
-    <t>60,03%</t>
+    <t>56,04%</t>
   </si>
   <si>
     <t>77,25%</t>
   </si>
   <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
   </si>
   <si>
     <t>78,04%</t>
   </si>
   <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
   </si>
   <si>
     <t>14,95%</t>
   </si>
   <si>
-    <t>39,97%</t>
+    <t>43,96%</t>
   </si>
   <si>
     <t>21,12%</t>
   </si>
   <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
   </si>
   <si>
     <t>20,5%</t>
   </si>
   <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
   </si>
   <si>
     <t>13,49%</t>
@@ -293,13 +293,13 @@
     <t>1,63%</t>
   </si>
   <si>
-    <t>5,9%</t>
+    <t>5,33%</t>
   </si>
   <si>
     <t>1,46%</t>
   </si>
   <si>
-    <t>4,64%</t>
+    <t>4,59%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -714,7 +714,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93E9E883-B721-46BA-9BDB-D94493FF7E44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA1D17D-AE2A-4C21-A27E-964BEA8775D8}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
